--- a/src/main/resources/tas/exampleTAS.xlsx
+++ b/src/main/resources/tas/exampleTAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7905" tabRatio="554" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7905" tabRatio="554" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="299">
   <si>
     <t>Raw</t>
   </si>
@@ -933,6 +933,15 @@
   </si>
   <si>
     <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Macao</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1486,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:E282"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
+    <sheetView topLeftCell="A261" workbookViewId="0">
       <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
@@ -3335,61 +3344,61 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="26">
-        <f>AVERAGE(C4:E4)</f>
+        <f t="shared" ref="C17:C22" si="0">AVERAGE(C4:E4)</f>
         <v>5</v>
       </c>
       <c r="D17" s="26">
-        <f>STDEV(C4:E4)</f>
+        <f t="shared" ref="D17:D22" si="1">STDEV(C4:E4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="26">
-        <f>AVERAGE(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D18" s="26">
-        <f>STDEV(C5:E5)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="26">
-        <f>AVERAGE(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>6.5555555555555545</v>
       </c>
       <c r="D19" s="26">
-        <f>STDEV(C6:E6)</f>
+        <f t="shared" si="1"/>
         <v>3.8634085890474927</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="26">
-        <f>AVERAGE(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
       <c r="D20" s="26">
-        <f>STDEV(C7:E7)</f>
+        <f t="shared" si="1"/>
         <v>2.309401076758502</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" s="26">
-        <f>AVERAGE(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D21" s="26">
-        <f>STDEV(C8:E8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" s="26">
-        <f>AVERAGE(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
       <c r="D22" s="26">
-        <f>STDEV(C9:E9)</f>
+        <f t="shared" si="1"/>
         <v>2.0816659994661335</v>
       </c>
     </row>
@@ -3699,7 +3708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4791,20 +4800,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:CZ8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CZ3" sqref="G3:CZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="3" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="12.125" style="5" customWidth="1"/>
+    <col min="8" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="18.125" style="5" customWidth="1"/>
+    <col min="14" max="15" width="9" style="5"/>
+    <col min="16" max="16" width="9.25" style="5" customWidth="1"/>
+    <col min="17" max="18" width="9" style="5"/>
+    <col min="19" max="19" width="9.75" style="5" customWidth="1"/>
+    <col min="20" max="21" width="9" style="5"/>
+    <col min="22" max="22" width="11" style="5" customWidth="1"/>
+    <col min="23" max="29" width="9" style="5"/>
+    <col min="30" max="30" width="20.875" style="5" customWidth="1"/>
+    <col min="31" max="32" width="9" style="5"/>
+    <col min="33" max="33" width="16.875" style="5" customWidth="1"/>
+    <col min="34" max="34" width="9" style="5"/>
+    <col min="35" max="35" width="12.25" style="5" customWidth="1"/>
+    <col min="36" max="37" width="9" style="5"/>
+    <col min="38" max="38" width="10" style="5" customWidth="1"/>
+    <col min="39" max="39" width="9" style="5"/>
+    <col min="40" max="40" width="11" style="5" customWidth="1"/>
+    <col min="41" max="41" width="14.375" style="5" customWidth="1"/>
+    <col min="42" max="42" width="21.75" style="5" customWidth="1"/>
+    <col min="43" max="44" width="9" style="5"/>
+    <col min="45" max="45" width="10.5" style="5" customWidth="1"/>
+    <col min="46" max="49" width="9" style="5"/>
+    <col min="50" max="50" width="12.25" style="5" customWidth="1"/>
+    <col min="51" max="51" width="9.75" style="5" customWidth="1"/>
+    <col min="52" max="52" width="12" style="5" customWidth="1"/>
+    <col min="53" max="55" width="9" style="5"/>
+    <col min="56" max="56" width="14" style="5" customWidth="1"/>
+    <col min="57" max="59" width="9" style="5"/>
+    <col min="60" max="60" width="17.875" style="5" customWidth="1"/>
+    <col min="61" max="62" width="9" style="5"/>
+    <col min="63" max="63" width="10.375" style="5" customWidth="1"/>
+    <col min="64" max="64" width="16.125" style="5" customWidth="1"/>
+    <col min="65" max="67" width="9" style="5"/>
+    <col min="68" max="68" width="13.25" style="5" customWidth="1"/>
+    <col min="69" max="70" width="9" style="5"/>
+    <col min="71" max="71" width="13" style="5" customWidth="1"/>
+    <col min="72" max="72" width="16" style="5" customWidth="1"/>
+    <col min="73" max="80" width="9" style="5"/>
+    <col min="81" max="81" width="10.875" style="5" customWidth="1"/>
+    <col min="82" max="82" width="9" style="5"/>
+    <col min="83" max="83" width="9.75" style="5" customWidth="1"/>
+    <col min="84" max="85" width="9" style="5"/>
+    <col min="86" max="86" width="13.375" style="5" customWidth="1"/>
+    <col min="87" max="96" width="9" style="5"/>
+    <col min="97" max="97" width="10.875" style="5" customWidth="1"/>
+    <col min="98" max="103" width="9" style="5"/>
+    <col min="104" max="104" width="10.625" style="5" customWidth="1"/>
+    <col min="105" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>250</v>
       </c>
@@ -4812,7 +4871,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:104" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
@@ -4820,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
@@ -4837,8 +4896,302 @@
       <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="CI3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="CS3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CU3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CV3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CX3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CY3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="CZ3" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
@@ -4854,8 +5207,299 @@
       <c r="F4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5</v>
+      </c>
+      <c r="M4" s="9">
+        <v>6</v>
+      </c>
+      <c r="N4" s="9">
+        <v>3</v>
+      </c>
+      <c r="O4" s="9">
+        <v>5</v>
+      </c>
+      <c r="P4" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>5</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>6</v>
+      </c>
+      <c r="U4" s="9">
+        <v>3</v>
+      </c>
+      <c r="V4" s="9">
+        <v>2</v>
+      </c>
+      <c r="W4" s="9">
+        <v>5</v>
+      </c>
+      <c r="X4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>6</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="9">
+        <v>6</v>
+      </c>
+      <c r="BA4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="9">
+        <v>6</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="9">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="9">
+        <v>6</v>
+      </c>
+      <c r="BJ4" s="9">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="9">
+        <v>4</v>
+      </c>
+      <c r="BO4" s="9">
+        <v>6</v>
+      </c>
+      <c r="BP4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BS4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BU4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BX4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BY4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="9">
+        <v>6</v>
+      </c>
+      <c r="CC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CE4" s="9">
+        <v>2</v>
+      </c>
+      <c r="CF4" s="9">
+        <v>2</v>
+      </c>
+      <c r="CG4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CH4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CJ4" s="9">
+        <v>4</v>
+      </c>
+      <c r="CK4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CM4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CN4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="9">
+        <v>6</v>
+      </c>
+      <c r="CP4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CQ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="9">
+        <v>6</v>
+      </c>
+      <c r="CS4" s="9">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CU4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CV4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CW4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CX4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CZ4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
@@ -4871,8 +5515,290 @@
       <c r="F5" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>4</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5</v>
+      </c>
+      <c r="R5" s="9">
+        <v>3</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9">
+        <v>2</v>
+      </c>
+      <c r="X5" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BA5" s="9">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BF5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BI5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BU5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>6</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>5</v>
+      </c>
+      <c r="CE5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CF5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CG5" s="9">
+        <v>6</v>
+      </c>
+      <c r="CH5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>5</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>6</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>4</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ5" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU5" s="9">
+        <v>5</v>
+      </c>
+      <c r="CV5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CW5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CX5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="9">
+        <v>5</v>
+      </c>
+      <c r="CZ5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
@@ -4888,8 +5814,287 @@
       <c r="F6" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>6</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>5</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2</v>
+      </c>
+      <c r="S6" s="9">
+        <v>3</v>
+      </c>
+      <c r="U6" s="9">
+        <v>3</v>
+      </c>
+      <c r="W6" s="9">
+        <v>3</v>
+      </c>
+      <c r="X6" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>6</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>3</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BG6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="9">
+        <v>4</v>
+      </c>
+      <c r="BJ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>4</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BP6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="BS6" s="9">
+        <v>3</v>
+      </c>
+      <c r="BT6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU6" s="9">
+        <v>3</v>
+      </c>
+      <c r="BV6" s="9">
+        <v>3</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CG6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CH6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>6</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>6</v>
+      </c>
+      <c r="CQ6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CS6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CU6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CV6" s="9">
+        <v>6</v>
+      </c>
+      <c r="CW6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CX6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CY6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CZ6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
@@ -4905,8 +6110,299 @@
       <c r="F7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>5</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1</v>
+      </c>
+      <c r="T7" s="9">
+        <v>3</v>
+      </c>
+      <c r="U7" s="9">
+        <v>3</v>
+      </c>
+      <c r="W7" s="9">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="9">
+        <v>5</v>
+      </c>
+      <c r="BD7" s="9">
+        <v>6</v>
+      </c>
+      <c r="BE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="9">
+        <v>5</v>
+      </c>
+      <c r="BG7" s="9">
+        <v>3</v>
+      </c>
+      <c r="BH7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="9">
+        <v>4</v>
+      </c>
+      <c r="BJ7" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>3</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>6</v>
+      </c>
+      <c r="BM7" s="9">
+        <v>4</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>4</v>
+      </c>
+      <c r="BP7" s="9">
+        <v>4</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BT7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BV7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>6</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>3</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CG7" s="9">
+        <v>3</v>
+      </c>
+      <c r="CH7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>4</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>3</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>5</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>4</v>
+      </c>
+      <c r="CQ7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CS7" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="9">
+        <v>5</v>
+      </c>
+      <c r="CW7" s="9">
+        <v>3</v>
+      </c>
+      <c r="CX7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CY7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CZ7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4935,10 +6431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:CZ8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="CZ12" sqref="CZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4948,7 +6444,7 @@
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>250</v>
       </c>
@@ -4956,7 +6452,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:104" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
@@ -4964,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
@@ -4981,8 +6477,302 @@
       <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="CI3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="CS3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CU3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CV3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CX3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CY3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="CZ3" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
@@ -4993,8 +6783,400 @@
         <v>5</v>
       </c>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="9">
+        <f>'2009-Raw'!G4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <f>'2009-Raw'!H4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="9">
+        <f>'2009-Raw'!I4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <f>'2009-Raw'!J4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="9">
+        <f>'2009-Raw'!K4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="9">
+        <f>'2009-Raw'!L4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="9">
+        <f>'2009-Raw'!M4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="N4" s="9">
+        <f>'2009-Raw'!N4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="9">
+        <f>'2009-Raw'!O4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="P4" s="9">
+        <f>'2009-Raw'!P4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>'2009-Raw'!Q4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="R4" s="9">
+        <f>'2009-Raw'!R4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="9">
+        <f>'2009-Raw'!S4 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <f>'2009-Raw'!T4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="U4" s="9">
+        <f>'2009-Raw'!U4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="V4" s="9">
+        <f>'2009-Raw'!V4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="W4" s="9">
+        <f>'2009-Raw'!W4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="X4" s="9">
+        <f>'2009-Raw'!X4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="Y4" s="9">
+        <f>'2009-Raw'!Y4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="Z4" s="9">
+        <f>'2009-Raw'!Z4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>'2009-Raw'!AA4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AB4" s="9">
+        <f>'2009-Raw'!AB4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AC4" s="9">
+        <f>'2009-Raw'!AC4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>'2009-Raw'!AD4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AE4" s="9">
+        <f>'2009-Raw'!AE4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AF4" s="9">
+        <f>'2009-Raw'!AF4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>'2009-Raw'!AG4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AH4" s="9">
+        <f>'2009-Raw'!AH4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AI4" s="9">
+        <f>'2009-Raw'!AI4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f>'2009-Raw'!AJ4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AK4" s="9">
+        <f>'2009-Raw'!AK4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AL4" s="9">
+        <f>'2009-Raw'!AL4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AM4" s="9">
+        <f>'2009-Raw'!AM4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AN4" s="9">
+        <f>'2009-Raw'!AN4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AO4" s="9">
+        <f>'2009-Raw'!AO4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AP4" s="9">
+        <f>'2009-Raw'!AP4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f>'2009-Raw'!AQ4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AR4" s="9">
+        <f>'2009-Raw'!AR4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AS4" s="9">
+        <f>'2009-Raw'!AS4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AT4" s="9">
+        <f>'2009-Raw'!AT4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AU4" s="9">
+        <f>'2009-Raw'!AU4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AV4" s="9">
+        <f>'2009-Raw'!AV4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AW4" s="9">
+        <f>'2009-Raw'!AW4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AX4" s="9">
+        <f>'2009-Raw'!AX4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AY4" s="9">
+        <f>'2009-Raw'!AY4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AZ4" s="9">
+        <f>'2009-Raw'!AZ4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BA4" s="9">
+        <f>'2009-Raw'!BA4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BB4" s="9">
+        <f>'2009-Raw'!BB4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BC4" s="9">
+        <f>'2009-Raw'!BC4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BD4" s="9">
+        <f>'2009-Raw'!BD4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BE4" s="9">
+        <f>'2009-Raw'!BE4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BF4" s="9">
+        <f>'2009-Raw'!BF4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BG4" s="9">
+        <f>'2009-Raw'!BG4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BH4" s="9">
+        <f>'2009-Raw'!BH4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BI4" s="9">
+        <f>'2009-Raw'!BI4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BJ4" s="9">
+        <f>'2009-Raw'!BJ4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BK4" s="9">
+        <f>'2009-Raw'!BK4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BL4" s="9">
+        <f>'2009-Raw'!BL4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BM4" s="9">
+        <f>'2009-Raw'!BM4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BN4" s="9">
+        <f>'2009-Raw'!BN4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BO4" s="9">
+        <f>'2009-Raw'!BO4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BP4" s="9">
+        <f>'2009-Raw'!BP4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BQ4" s="9">
+        <f>'2009-Raw'!BQ4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BR4" s="9">
+        <f>'2009-Raw'!BR4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BS4" s="9">
+        <f>'2009-Raw'!BS4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BT4" s="9">
+        <f>'2009-Raw'!BT4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BU4" s="9">
+        <f>'2009-Raw'!BU4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BV4" s="9">
+        <f>'2009-Raw'!BV4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BW4" s="9">
+        <f>'2009-Raw'!BW4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BX4" s="9">
+        <f>'2009-Raw'!BX4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BY4" s="9">
+        <f>'2009-Raw'!BY4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="9">
+        <f>'2009-Raw'!BZ4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CA4" s="9">
+        <f>'2009-Raw'!CA4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CB4" s="9">
+        <f>'2009-Raw'!CB4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CC4" s="9">
+        <f>'2009-Raw'!CC4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CD4" s="9">
+        <f>'2009-Raw'!CD4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CE4" s="9">
+        <f>'2009-Raw'!CE4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CF4" s="9">
+        <f>'2009-Raw'!CF4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CG4" s="9">
+        <f>'2009-Raw'!CG4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CH4" s="9">
+        <f>'2009-Raw'!CH4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CI4" s="9">
+        <f>'2009-Raw'!CI4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CJ4" s="9">
+        <f>'2009-Raw'!CJ4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CK4" s="9">
+        <f>'2009-Raw'!CK4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CL4" s="9">
+        <f>'2009-Raw'!CL4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CM4" s="9">
+        <f>'2009-Raw'!CM4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CN4" s="9">
+        <f>'2009-Raw'!CN4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CO4" s="9">
+        <f>'2009-Raw'!CO4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CP4" s="9">
+        <f>'2009-Raw'!CP4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CQ4" s="9">
+        <f>'2009-Raw'!CQ4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CR4" s="9">
+        <f>'2009-Raw'!CR4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CS4" s="9">
+        <f>'2009-Raw'!CS4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CT4" s="9">
+        <f>'2009-Raw'!CT4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CU4" s="9">
+        <f>'2009-Raw'!CU4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CV4" s="9">
+        <f>'2009-Raw'!CV4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CW4" s="9">
+        <f>'2009-Raw'!CW4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CX4" s="9">
+        <f>'2009-Raw'!CX4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CY4" s="9">
+        <f>'2009-Raw'!CY4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CZ4" s="9">
+        <f>'2009-Raw'!CZ4 + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
@@ -5008,8 +7190,400 @@
         <v>4</v>
       </c>
       <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="9">
+        <f>'2009-Raw'!G5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <f>'2009-Raw'!H5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <f>'2009-Raw'!I5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="9">
+        <f>'2009-Raw'!J5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
+        <f>'2009-Raw'!K5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="9">
+        <f>'2009-Raw'!L5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="9">
+        <f>'2009-Raw'!M5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="N5" s="9">
+        <f>'2009-Raw'!N5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="O5" s="9">
+        <f>'2009-Raw'!O5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="9">
+        <f>'2009-Raw'!P5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>'2009-Raw'!Q5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="R5" s="9">
+        <f>'2009-Raw'!R5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="S5" s="9">
+        <f>'2009-Raw'!S5 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="9">
+        <f>'2009-Raw'!T5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="U5" s="9">
+        <f>'2009-Raw'!U5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="V5" s="9">
+        <f>'2009-Raw'!V5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="W5" s="9">
+        <f>'2009-Raw'!W5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="X5" s="9">
+        <f>'2009-Raw'!X5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>'2009-Raw'!Y5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="Z5" s="9">
+        <f>'2009-Raw'!Z5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AA5" s="9">
+        <f>'2009-Raw'!AA5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AB5" s="9">
+        <f>'2009-Raw'!AB5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AC5" s="9">
+        <f>'2009-Raw'!AC5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>'2009-Raw'!AD5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AE5" s="9">
+        <f>'2009-Raw'!AE5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="9">
+        <f>'2009-Raw'!AF5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>'2009-Raw'!AG5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AH5" s="9">
+        <f>'2009-Raw'!AH5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AI5" s="9">
+        <f>'2009-Raw'!AI5 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f>'2009-Raw'!AJ5 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="AK5" s="9">
+        <f>'2009-Raw'!AK5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AL5" s="9">
+        <f>'2009-Raw'!AL5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AM5" s="9">
+        <f>'2009-Raw'!AM5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AN5" s="9">
+        <f>'2009-Raw'!AN5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AO5" s="9">
+        <f>'2009-Raw'!AO5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AP5" s="9">
+        <f>'2009-Raw'!AP5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AQ5" s="9">
+        <f>'2009-Raw'!AQ5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AR5" s="9">
+        <f>'2009-Raw'!AR5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AS5" s="9">
+        <f>'2009-Raw'!AS5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AT5" s="9">
+        <f>'2009-Raw'!AT5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AU5" s="9">
+        <f>'2009-Raw'!AU5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AV5" s="9">
+        <f>'2009-Raw'!AV5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AW5" s="9">
+        <f>'2009-Raw'!AW5 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="AX5" s="9">
+        <f>'2009-Raw'!AX5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AY5" s="9">
+        <f>'2009-Raw'!AY5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="9">
+        <f>'2009-Raw'!AZ5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BA5" s="9">
+        <f>'2009-Raw'!BA5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BB5" s="9">
+        <f>'2009-Raw'!BB5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BC5" s="9">
+        <f>'2009-Raw'!BC5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BD5" s="9">
+        <f>'2009-Raw'!BD5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BE5" s="9">
+        <f>'2009-Raw'!BE5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BF5" s="9">
+        <f>'2009-Raw'!BF5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BG5" s="9">
+        <f>'2009-Raw'!BG5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BH5" s="9">
+        <f>'2009-Raw'!BH5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BI5" s="9">
+        <f>'2009-Raw'!BI5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BJ5" s="9">
+        <f>'2009-Raw'!BJ5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BK5" s="9">
+        <f>'2009-Raw'!BK5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BL5" s="9">
+        <f>'2009-Raw'!BL5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BM5" s="9">
+        <f>'2009-Raw'!BM5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BN5" s="9">
+        <f>'2009-Raw'!BN5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BO5" s="9">
+        <f>'2009-Raw'!BO5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BP5" s="9">
+        <f>'2009-Raw'!BP5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BQ5" s="9">
+        <f>'2009-Raw'!BQ5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BR5" s="9">
+        <f>'2009-Raw'!BR5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BS5" s="9">
+        <f>'2009-Raw'!BS5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BT5" s="9">
+        <f>'2009-Raw'!BT5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BU5" s="9">
+        <f>'2009-Raw'!BU5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BV5" s="9">
+        <f>'2009-Raw'!BV5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BW5" s="9">
+        <f>'2009-Raw'!BW5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BX5" s="9">
+        <f>'2009-Raw'!BX5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BY5" s="9">
+        <f>'2009-Raw'!BY5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BZ5" s="9">
+        <f>'2009-Raw'!BZ5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CA5" s="9">
+        <f>'2009-Raw'!CA5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CB5" s="9">
+        <f>'2009-Raw'!CB5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CC5" s="9">
+        <f>'2009-Raw'!CC5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CD5" s="9">
+        <f>'2009-Raw'!CD5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CE5" s="9">
+        <f>'2009-Raw'!CE5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CF5" s="9">
+        <f>'2009-Raw'!CF5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CG5" s="9">
+        <f>'2009-Raw'!CG5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CH5" s="9">
+        <f>'2009-Raw'!CH5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CI5" s="9">
+        <f>'2009-Raw'!CI5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CJ5" s="9">
+        <f>'2009-Raw'!CJ5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CK5" s="9">
+        <f>'2009-Raw'!CK5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CL5" s="9">
+        <f>'2009-Raw'!CL5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CM5" s="9">
+        <f>'2009-Raw'!CM5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CN5" s="9">
+        <f>'2009-Raw'!CN5 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="CO5" s="9">
+        <f>'2009-Raw'!CO5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CP5" s="9">
+        <f>'2009-Raw'!CP5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CQ5" s="9">
+        <f>'2009-Raw'!CQ5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CR5" s="9">
+        <f>'2009-Raw'!CR5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CS5" s="9">
+        <f>'2009-Raw'!CS5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CT5" s="9">
+        <f>'2009-Raw'!CT5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CU5" s="9">
+        <f>'2009-Raw'!CU5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CV5" s="9">
+        <f>'2009-Raw'!CV5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CW5" s="9">
+        <f>'2009-Raw'!CW5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CX5" s="9">
+        <f>'2009-Raw'!CX5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CY5" s="9">
+        <f>'2009-Raw'!CY5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CZ5" s="9">
+        <f>'2009-Raw'!CZ5 + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
@@ -5020,8 +7594,400 @@
         <v>8</v>
       </c>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="9">
+        <f>'2009-Raw'!G6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <f>'2009-Raw'!H6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="I6" s="9">
+        <f>'2009-Raw'!I6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <f>'2009-Raw'!J6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <f>'2009-Raw'!K6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="9">
+        <f>'2009-Raw'!L6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="9">
+        <f>'2009-Raw'!M6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="N6" s="9">
+        <f>'2009-Raw'!N6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="9">
+        <f>'2009-Raw'!O6 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <f>'2009-Raw'!P6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>'2009-Raw'!Q6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="R6" s="9">
+        <f>'2009-Raw'!R6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="9">
+        <f>'2009-Raw'!S6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="T6" s="9">
+        <f>'2009-Raw'!T6 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <f>'2009-Raw'!U6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="V6" s="9">
+        <f>'2009-Raw'!V6 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <f>'2009-Raw'!W6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="X6" s="9">
+        <f>'2009-Raw'!X6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="Y6" s="9">
+        <f>'2009-Raw'!Y6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="Z6" s="9">
+        <f>'2009-Raw'!Z6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AA6" s="9">
+        <f>'2009-Raw'!AA6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <f>'2009-Raw'!AB6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AC6" s="9">
+        <f>'2009-Raw'!AC6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AD6" s="9">
+        <f>'2009-Raw'!AD6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AE6" s="9">
+        <f>'2009-Raw'!AE6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="9">
+        <f>'2009-Raw'!AF6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AG6" s="9">
+        <f>'2009-Raw'!AG6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AH6" s="9">
+        <f>'2009-Raw'!AH6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AI6" s="9">
+        <f>'2009-Raw'!AI6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="9">
+        <f>'2009-Raw'!AJ6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AK6" s="9">
+        <f>'2009-Raw'!AK6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AL6" s="9">
+        <f>'2009-Raw'!AL6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AM6" s="9">
+        <f>'2009-Raw'!AM6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AN6" s="9">
+        <f>'2009-Raw'!AN6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AO6" s="9">
+        <f>'2009-Raw'!AO6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AP6" s="9">
+        <f>'2009-Raw'!AP6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="9">
+        <f>'2009-Raw'!AQ6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <f>'2009-Raw'!AR6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AS6" s="9">
+        <f>'2009-Raw'!AS6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AT6" s="9">
+        <f>'2009-Raw'!AT6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AU6" s="9">
+        <f>'2009-Raw'!AU6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AV6" s="9">
+        <f>'2009-Raw'!AV6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AW6" s="9">
+        <f>'2009-Raw'!AW6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AX6" s="9">
+        <f>'2009-Raw'!AX6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AY6" s="9">
+        <f>'2009-Raw'!AY6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="9">
+        <f>'2009-Raw'!AZ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BA6" s="9">
+        <f>'2009-Raw'!BA6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BB6" s="9">
+        <f>'2009-Raw'!BB6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BC6" s="9">
+        <f>'2009-Raw'!BC6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BD6" s="9">
+        <f>'2009-Raw'!BD6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BE6" s="9">
+        <f>'2009-Raw'!BE6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BF6" s="9">
+        <f>'2009-Raw'!BF6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BG6" s="9">
+        <f>'2009-Raw'!BG6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BH6" s="9">
+        <f>'2009-Raw'!BH6 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="BI6" s="9">
+        <f>'2009-Raw'!BI6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BJ6" s="9">
+        <f>'2009-Raw'!BJ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BK6" s="9">
+        <f>'2009-Raw'!BK6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BL6" s="9">
+        <f>'2009-Raw'!BL6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BM6" s="9">
+        <f>'2009-Raw'!BM6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BN6" s="9">
+        <f>'2009-Raw'!BN6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BO6" s="9">
+        <f>'2009-Raw'!BO6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BP6" s="9">
+        <f>'2009-Raw'!BP6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BQ6" s="9">
+        <f>'2009-Raw'!BQ6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BR6" s="9">
+        <f>'2009-Raw'!BR6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BS6" s="9">
+        <f>'2009-Raw'!BS6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BT6" s="9">
+        <f>'2009-Raw'!BT6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BU6" s="9">
+        <f>'2009-Raw'!BU6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BV6" s="9">
+        <f>'2009-Raw'!BV6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BW6" s="9">
+        <f>'2009-Raw'!BW6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BX6" s="9">
+        <f>'2009-Raw'!BX6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BY6" s="9">
+        <f>'2009-Raw'!BY6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BZ6" s="9">
+        <f>'2009-Raw'!BZ6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CA6" s="9">
+        <f>'2009-Raw'!CA6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CB6" s="9">
+        <f>'2009-Raw'!CB6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CC6" s="9">
+        <f>'2009-Raw'!CC6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CD6" s="9">
+        <f>'2009-Raw'!CD6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CE6" s="9">
+        <f>'2009-Raw'!CE6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CF6" s="9">
+        <f>'2009-Raw'!CF6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CG6" s="9">
+        <f>'2009-Raw'!CG6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CH6" s="9">
+        <f>'2009-Raw'!CH6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CI6" s="9">
+        <f>'2009-Raw'!CI6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CJ6" s="9">
+        <f>'2009-Raw'!CJ6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CK6" s="9">
+        <f>'2009-Raw'!CK6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CL6" s="9">
+        <f>'2009-Raw'!CL6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CM6" s="9">
+        <f>'2009-Raw'!CM6 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="CN6" s="9">
+        <f>'2009-Raw'!CN6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CO6" s="9">
+        <f>'2009-Raw'!CO6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CP6" s="9">
+        <f>'2009-Raw'!CP6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CQ6" s="9">
+        <f>'2009-Raw'!CQ6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CR6" s="9">
+        <f>'2009-Raw'!CR6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CS6" s="9">
+        <f>'2009-Raw'!CS6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CT6" s="9">
+        <f>'2009-Raw'!CT6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CU6" s="9">
+        <f>'2009-Raw'!CU6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CV6" s="9">
+        <f>'2009-Raw'!CV6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CW6" s="9">
+        <f>'2009-Raw'!CW6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CX6" s="9">
+        <f>'2009-Raw'!CX6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CY6" s="9">
+        <f>'2009-Raw'!CY6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CZ6" s="9">
+        <f>'2009-Raw'!CZ6 + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
@@ -5035,8 +8001,400 @@
         <v>6</v>
       </c>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="9">
+        <f>'2009-Raw'!G7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <f>'2009-Raw'!H7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <f>'2009-Raw'!I7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="J7" s="9">
+        <f>'2009-Raw'!J7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <f>'2009-Raw'!K7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <f>'2009-Raw'!L7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="9">
+        <f>'2009-Raw'!M7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="N7" s="9">
+        <f>'2009-Raw'!N7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="O7" s="9">
+        <f>'2009-Raw'!O7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="P7" s="9">
+        <f>'2009-Raw'!P7 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>'2009-Raw'!Q7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="R7" s="9">
+        <f>'2009-Raw'!R7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="S7" s="9">
+        <f>'2009-Raw'!S7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="T7" s="9">
+        <f>'2009-Raw'!T7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="U7" s="9">
+        <f>'2009-Raw'!U7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="V7" s="9">
+        <f>'2009-Raw'!V7 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="9">
+        <f>'2009-Raw'!W7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="9">
+        <f>'2009-Raw'!X7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="9">
+        <f>'2009-Raw'!Y7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="Z7" s="9">
+        <f>'2009-Raw'!Z7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AA7" s="9">
+        <f>'2009-Raw'!AA7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AB7" s="9">
+        <f>'2009-Raw'!AB7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AC7" s="9">
+        <f>'2009-Raw'!AC7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AD7" s="9">
+        <f>'2009-Raw'!AD7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AE7" s="9">
+        <f>'2009-Raw'!AE7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AF7" s="9">
+        <f>'2009-Raw'!AF7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AG7" s="9">
+        <f>'2009-Raw'!AG7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AH7" s="9">
+        <f>'2009-Raw'!AH7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AI7" s="9">
+        <f>'2009-Raw'!AI7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f>'2009-Raw'!AJ7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AK7" s="9">
+        <f>'2009-Raw'!AK7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AL7" s="9">
+        <f>'2009-Raw'!AL7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AM7" s="9">
+        <f>'2009-Raw'!AM7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AN7" s="9">
+        <f>'2009-Raw'!AN7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AO7" s="9">
+        <f>'2009-Raw'!AO7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AP7" s="9">
+        <f>'2009-Raw'!AP7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="9">
+        <f>'2009-Raw'!AQ7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <f>'2009-Raw'!AR7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AS7" s="9">
+        <f>'2009-Raw'!AS7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AT7" s="9">
+        <f>'2009-Raw'!AT7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AU7" s="9">
+        <f>'2009-Raw'!AU7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AV7" s="9">
+        <f>'2009-Raw'!AV7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AW7" s="9">
+        <f>'2009-Raw'!AW7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AX7" s="9">
+        <f>'2009-Raw'!AX7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AY7" s="9">
+        <f>'2009-Raw'!AY7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AZ7" s="9">
+        <f>'2009-Raw'!AZ7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BA7" s="9">
+        <f>'2009-Raw'!BA7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BB7" s="9">
+        <f>'2009-Raw'!BB7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BC7" s="9">
+        <f>'2009-Raw'!BC7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BD7" s="9">
+        <f>'2009-Raw'!BD7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BE7" s="9">
+        <f>'2009-Raw'!BE7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BF7" s="9">
+        <f>'2009-Raw'!BF7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BG7" s="9">
+        <f>'2009-Raw'!BG7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BH7" s="9">
+        <f>'2009-Raw'!BH7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BI7" s="9">
+        <f>'2009-Raw'!BI7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BJ7" s="9">
+        <f>'2009-Raw'!BJ7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BK7" s="9">
+        <f>'2009-Raw'!BK7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BL7" s="9">
+        <f>'2009-Raw'!BL7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BM7" s="9">
+        <f>'2009-Raw'!BM7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BN7" s="9">
+        <f>'2009-Raw'!BN7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BO7" s="9">
+        <f>'2009-Raw'!BO7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BP7" s="9">
+        <f>'2009-Raw'!BP7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ7" s="9">
+        <f>'2009-Raw'!BQ7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BR7" s="9">
+        <f>'2009-Raw'!BR7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BS7" s="9">
+        <f>'2009-Raw'!BS7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BT7" s="9">
+        <f>'2009-Raw'!BT7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BU7" s="9">
+        <f>'2009-Raw'!BU7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BV7" s="9">
+        <f>'2009-Raw'!BV7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BW7" s="9">
+        <f>'2009-Raw'!BW7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BX7" s="9">
+        <f>'2009-Raw'!BX7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BY7" s="9">
+        <f>'2009-Raw'!BY7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="9">
+        <f>'2009-Raw'!BZ7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CA7" s="9">
+        <f>'2009-Raw'!CA7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CB7" s="9">
+        <f>'2009-Raw'!CB7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CC7" s="9">
+        <f>'2009-Raw'!CC7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CD7" s="9">
+        <f>'2009-Raw'!CD7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CE7" s="9">
+        <f>'2009-Raw'!CE7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CF7" s="9">
+        <f>'2009-Raw'!CF7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CG7" s="9">
+        <f>'2009-Raw'!CG7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CH7" s="9">
+        <f>'2009-Raw'!CH7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CI7" s="9">
+        <f>'2009-Raw'!CI7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CJ7" s="9">
+        <f>'2009-Raw'!CJ7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CK7" s="9">
+        <f>'2009-Raw'!CK7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CL7" s="9">
+        <f>'2009-Raw'!CL7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CM7" s="9">
+        <f>'2009-Raw'!CM7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CN7" s="9">
+        <f>'2009-Raw'!CN7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CO7" s="9">
+        <f>'2009-Raw'!CO7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CP7" s="9">
+        <f>'2009-Raw'!CP7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CQ7" s="9">
+        <f>'2009-Raw'!CQ7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CR7" s="9">
+        <f>'2009-Raw'!CR7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CS7" s="9">
+        <f>'2009-Raw'!CS7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CT7" s="9">
+        <f>'2009-Raw'!CT7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CU7" s="9">
+        <f>'2009-Raw'!CU7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CV7" s="9">
+        <f>'2009-Raw'!CV7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CW7" s="9">
+        <f>'2009-Raw'!CW7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CX7" s="9">
+        <f>'2009-Raw'!CX7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CY7" s="9">
+        <f>'2009-Raw'!CY7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CZ7" s="9">
+        <f>'2009-Raw'!CZ7 + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5065,10 +8423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:CZ9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5078,7 +8436,7 @@
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>250</v>
       </c>
@@ -5086,7 +8444,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:104" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
@@ -5094,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>245</v>
       </c>
@@ -5111,8 +8469,302 @@
       <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="CI3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CR3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="CS3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CT3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CU3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CV3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CX3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CY3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="CZ3" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>251</v>
       </c>
@@ -5128,8 +8780,400 @@
       <c r="F4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="9">
+        <f>'2010-Raw'!G4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="9">
+        <f>'2010-Raw'!H4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <f>'2010-Raw'!I4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <f>'2010-Raw'!J4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="9">
+        <f>'2010-Raw'!K4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="9">
+        <f>'2010-Raw'!L4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="M4" s="9">
+        <f>'2010-Raw'!M4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="N4" s="9">
+        <f>'2010-Raw'!N4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="O4" s="9">
+        <f>'2010-Raw'!O4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="P4" s="9">
+        <f>'2010-Raw'!P4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>'2010-Raw'!Q4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="R4" s="9">
+        <f>'2010-Raw'!R4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="9">
+        <f>'2010-Raw'!S4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="T4" s="9">
+        <f>'2010-Raw'!T4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="U4" s="9">
+        <f>'2010-Raw'!U4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="V4" s="9">
+        <f>'2010-Raw'!V4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="W4" s="9">
+        <f>'2010-Raw'!W4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="X4" s="9">
+        <f>'2010-Raw'!X4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="Y4" s="9">
+        <f>'2010-Raw'!Y4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="Z4" s="9">
+        <f>'2010-Raw'!Z4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>'2010-Raw'!AA4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AB4" s="9">
+        <f>'2010-Raw'!AB4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AC4" s="9">
+        <f>'2010-Raw'!AC4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>'2010-Raw'!AD4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AE4" s="9">
+        <f>'2010-Raw'!AE4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AF4" s="9">
+        <f>'2010-Raw'!AF4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>'2010-Raw'!AG4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AH4" s="9">
+        <f>'2010-Raw'!AH4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AI4" s="9">
+        <f>'2010-Raw'!AI4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f>'2010-Raw'!AJ4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AK4" s="9">
+        <f>'2010-Raw'!AK4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AL4" s="9">
+        <f>'2010-Raw'!AL4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AM4" s="9">
+        <f>'2010-Raw'!AM4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AN4" s="9">
+        <f>'2010-Raw'!AN4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AO4" s="9">
+        <f>'2010-Raw'!AO4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AP4" s="9">
+        <f>'2010-Raw'!AP4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f>'2010-Raw'!AQ4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AR4" s="9">
+        <f>'2010-Raw'!AR4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AS4" s="9">
+        <f>'2010-Raw'!AS4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AT4" s="9">
+        <f>'2010-Raw'!AT4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AU4" s="9">
+        <f>'2010-Raw'!AU4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AV4" s="9">
+        <f>'2010-Raw'!AV4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AW4" s="9">
+        <f>'2010-Raw'!AW4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AX4" s="9">
+        <f>'2010-Raw'!AX4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AY4" s="9">
+        <f>'2010-Raw'!AY4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AZ4" s="9">
+        <f>'2010-Raw'!AZ4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BA4" s="9">
+        <f>'2010-Raw'!BA4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BB4" s="9">
+        <f>'2010-Raw'!BB4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BC4" s="9">
+        <f>'2010-Raw'!BC4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BD4" s="9">
+        <f>'2010-Raw'!BD4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BE4" s="9">
+        <f>'2010-Raw'!BE4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BF4" s="9">
+        <f>'2010-Raw'!BF4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BG4" s="9">
+        <f>'2010-Raw'!BG4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BH4" s="9">
+        <f>'2010-Raw'!BH4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BI4" s="9">
+        <f>'2010-Raw'!BI4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BJ4" s="9">
+        <f>'2010-Raw'!BJ4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BK4" s="9">
+        <f>'2010-Raw'!BK4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BL4" s="9">
+        <f>'2010-Raw'!BL4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BM4" s="9">
+        <f>'2010-Raw'!BM4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BN4" s="9">
+        <f>'2010-Raw'!BN4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BO4" s="9">
+        <f>'2010-Raw'!BO4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BP4" s="9">
+        <f>'2010-Raw'!BP4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="9">
+        <f>'2010-Raw'!BQ4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BR4" s="9">
+        <f>'2010-Raw'!BR4 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BS4" s="9">
+        <f>'2010-Raw'!BS4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BT4" s="9">
+        <f>'2010-Raw'!BT4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BU4" s="9">
+        <f>'2010-Raw'!BU4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BV4" s="9">
+        <f>'2010-Raw'!BV4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BW4" s="9">
+        <f>'2010-Raw'!BW4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BX4" s="9">
+        <f>'2010-Raw'!BX4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BY4" s="9">
+        <f>'2010-Raw'!BY4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="9">
+        <f>'2010-Raw'!BZ4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CA4" s="9">
+        <f>'2010-Raw'!CA4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CB4" s="9">
+        <f>'2010-Raw'!CB4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CC4" s="9">
+        <f>'2010-Raw'!CC4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CD4" s="9">
+        <f>'2010-Raw'!CD4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CE4" s="9">
+        <f>'2010-Raw'!CE4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CF4" s="9">
+        <f>'2010-Raw'!CF4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CG4" s="9">
+        <f>'2010-Raw'!CG4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CH4" s="9">
+        <f>'2010-Raw'!CH4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CI4" s="9">
+        <f>'2010-Raw'!CI4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CJ4" s="9">
+        <f>'2010-Raw'!CJ4 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CK4" s="9">
+        <f>'2010-Raw'!CK4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CL4" s="9">
+        <f>'2010-Raw'!CL4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CM4" s="9">
+        <f>'2010-Raw'!CM4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CN4" s="9">
+        <f>'2010-Raw'!CN4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CO4" s="9">
+        <f>'2010-Raw'!CO4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CP4" s="9">
+        <f>'2010-Raw'!CP4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CQ4" s="9">
+        <f>'2010-Raw'!CQ4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CR4" s="9">
+        <f>'2010-Raw'!CR4 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CS4" s="9">
+        <f>'2010-Raw'!CS4 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CT4" s="9">
+        <f>'2010-Raw'!CT4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CU4" s="9">
+        <f>'2010-Raw'!CU4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CV4" s="9">
+        <f>'2010-Raw'!CV4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CW4" s="9">
+        <f>'2010-Raw'!CW4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CX4" s="9">
+        <f>'2010-Raw'!CX4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CY4" s="9">
+        <f>'2010-Raw'!CY4 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CZ4" s="9">
+        <f>'2010-Raw'!CZ4 + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>252</v>
       </c>
@@ -5145,10 +9189,400 @@
       <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="9">
+        <f>'2010-Raw'!G5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
+        <f>'2010-Raw'!H5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <f>'2010-Raw'!I5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="9">
+        <f>'2010-Raw'!J5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="9">
+        <f>'2010-Raw'!K5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="9">
+        <f>'2010-Raw'!L5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="9">
+        <f>'2010-Raw'!M5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="9">
+        <f>'2010-Raw'!N5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="O5" s="9">
+        <f>'2010-Raw'!O5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="P5" s="9">
+        <f>'2010-Raw'!P5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>'2010-Raw'!Q5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="R5" s="9">
+        <f>'2010-Raw'!R5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="S5" s="9">
+        <f>'2010-Raw'!S5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="T5" s="9">
+        <f>'2010-Raw'!T5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="U5" s="9">
+        <f>'2010-Raw'!U5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="V5" s="9">
+        <f>'2010-Raw'!V5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="W5" s="9">
+        <f>'2010-Raw'!W5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="X5" s="9">
+        <f>'2010-Raw'!X5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>'2010-Raw'!Y5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="Z5" s="9">
+        <f>'2010-Raw'!Z5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AA5" s="9">
+        <f>'2010-Raw'!AA5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9">
+        <f>'2010-Raw'!AB5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AC5" s="9">
+        <f>'2010-Raw'!AC5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>'2010-Raw'!AD5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AE5" s="9">
+        <f>'2010-Raw'!AE5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AF5" s="9">
+        <f>'2010-Raw'!AF5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>'2010-Raw'!AG5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AH5" s="9">
+        <f>'2010-Raw'!AH5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AI5" s="9">
+        <f>'2010-Raw'!AI5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f>'2010-Raw'!AJ5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AK5" s="9">
+        <f>'2010-Raw'!AK5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AL5" s="9">
+        <f>'2010-Raw'!AL5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AM5" s="9">
+        <f>'2010-Raw'!AM5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AN5" s="9">
+        <f>'2010-Raw'!AN5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AO5" s="9">
+        <f>'2010-Raw'!AO5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AP5" s="9">
+        <f>'2010-Raw'!AP5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="9">
+        <f>'2010-Raw'!AQ5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AR5" s="9">
+        <f>'2010-Raw'!AR5 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AS5" s="9">
+        <f>'2010-Raw'!AS5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AT5" s="9">
+        <f>'2010-Raw'!AT5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AU5" s="9">
+        <f>'2010-Raw'!AU5 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AV5" s="9">
+        <f>'2010-Raw'!AV5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AW5" s="9">
+        <f>'2010-Raw'!AW5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="AX5" s="9">
+        <f>'2010-Raw'!AX5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AY5" s="9">
+        <f>'2010-Raw'!AY5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="9">
+        <f>'2010-Raw'!AZ5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BA5" s="9">
+        <f>'2010-Raw'!BA5 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BB5" s="9">
+        <f>'2010-Raw'!BB5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BC5" s="9">
+        <f>'2010-Raw'!BC5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BD5" s="9">
+        <f>'2010-Raw'!BD5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BE5" s="9">
+        <f>'2010-Raw'!BE5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BF5" s="9">
+        <f>'2010-Raw'!BF5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BG5" s="9">
+        <f>'2010-Raw'!BG5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BH5" s="9">
+        <f>'2010-Raw'!BH5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BI5" s="9">
+        <f>'2010-Raw'!BI5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BJ5" s="9">
+        <f>'2010-Raw'!BJ5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BK5" s="9">
+        <f>'2010-Raw'!BK5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BL5" s="9">
+        <f>'2010-Raw'!BL5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BM5" s="9">
+        <f>'2010-Raw'!BM5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BN5" s="9">
+        <f>'2010-Raw'!BN5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BO5" s="9">
+        <f>'2010-Raw'!BO5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BP5" s="9">
+        <f>'2010-Raw'!BP5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BQ5" s="9">
+        <f>'2010-Raw'!BQ5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BR5" s="9">
+        <f>'2010-Raw'!BR5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BS5" s="9">
+        <f>'2010-Raw'!BS5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BT5" s="9">
+        <f>'2010-Raw'!BT5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BU5" s="9">
+        <f>'2010-Raw'!BU5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BV5" s="9">
+        <f>'2010-Raw'!BV5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BW5" s="9">
+        <f>'2010-Raw'!BW5 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BX5" s="9">
+        <f>'2010-Raw'!BX5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BY5" s="9">
+        <f>'2010-Raw'!BY5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BZ5" s="9">
+        <f>'2010-Raw'!BZ5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CA5" s="9">
+        <f>'2010-Raw'!CA5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CB5" s="9">
+        <f>'2010-Raw'!CB5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CC5" s="9">
+        <f>'2010-Raw'!CC5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CD5" s="9">
+        <f>'2010-Raw'!CD5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CE5" s="9">
+        <f>'2010-Raw'!CE5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CF5" s="9">
+        <f>'2010-Raw'!CF5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CG5" s="9">
+        <f>'2010-Raw'!CG5 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CH5" s="9">
+        <f>'2010-Raw'!CH5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CI5" s="9">
+        <f>'2010-Raw'!CI5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CJ5" s="9">
+        <f>'2010-Raw'!CJ5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CK5" s="9">
+        <f>'2010-Raw'!CK5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CL5" s="9">
+        <f>'2010-Raw'!CL5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CM5" s="9">
+        <f>'2010-Raw'!CM5 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CN5" s="9">
+        <f>'2010-Raw'!CN5 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CO5" s="9">
+        <f>'2010-Raw'!CO5 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CP5" s="9">
+        <f>'2010-Raw'!CP5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CQ5" s="9">
+        <f>'2010-Raw'!CQ5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CR5" s="9">
+        <f>'2010-Raw'!CR5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CS5" s="9">
+        <f>'2010-Raw'!CS5 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CT5" s="9">
+        <f>'2010-Raw'!CT5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CU5" s="9">
+        <f>'2010-Raw'!CU5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CV5" s="9">
+        <f>'2010-Raw'!CV5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CW5" s="9">
+        <f>'2010-Raw'!CW5 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CX5" s="9">
+        <f>'2010-Raw'!CX5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CY5" s="9">
+        <f>'2010-Raw'!CY5 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="9">
+        <f>'2010-Raw'!CZ5 + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>253</v>
       </c>
@@ -5161,10 +9595,400 @@
       <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="9">
+        <f>'2010-Raw'!G6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="9">
+        <f>'2010-Raw'!H6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="I6" s="9">
+        <f>'2010-Raw'!I6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <f>'2010-Raw'!J6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <f>'2010-Raw'!K6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="L6" s="9">
+        <f>'2010-Raw'!L6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="9">
+        <f>'2010-Raw'!M6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="N6" s="9">
+        <f>'2010-Raw'!N6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="9">
+        <f>'2010-Raw'!O6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="9">
+        <f>'2010-Raw'!P6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>'2010-Raw'!Q6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="R6" s="9">
+        <f>'2010-Raw'!R6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="S6" s="9">
+        <f>'2010-Raw'!S6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="T6" s="9">
+        <f>'2010-Raw'!T6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="U6" s="9">
+        <f>'2010-Raw'!U6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="V6" s="9">
+        <f>'2010-Raw'!V6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="W6" s="9">
+        <f>'2010-Raw'!W6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="X6" s="9">
+        <f>'2010-Raw'!X6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="Y6" s="9">
+        <f>'2010-Raw'!Y6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="Z6" s="9">
+        <f>'2010-Raw'!Z6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AA6" s="9">
+        <f>'2010-Raw'!AA6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AB6" s="9">
+        <f>'2010-Raw'!AB6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="9">
+        <f>'2010-Raw'!AC6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="9">
+        <f>'2010-Raw'!AD6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AE6" s="9">
+        <f>'2010-Raw'!AE6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AF6" s="9">
+        <f>'2010-Raw'!AF6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AG6" s="9">
+        <f>'2010-Raw'!AG6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AH6" s="9">
+        <f>'2010-Raw'!AH6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AI6" s="9">
+        <f>'2010-Raw'!AI6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="9">
+        <f>'2010-Raw'!AJ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AK6" s="9">
+        <f>'2010-Raw'!AK6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AL6" s="9">
+        <f>'2010-Raw'!AL6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AM6" s="9">
+        <f>'2010-Raw'!AM6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AN6" s="9">
+        <f>'2010-Raw'!AN6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AO6" s="9">
+        <f>'2010-Raw'!AO6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AP6" s="9">
+        <f>'2010-Raw'!AP6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="9">
+        <f>'2010-Raw'!AQ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AR6" s="9">
+        <f>'2010-Raw'!AR6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AS6" s="9">
+        <f>'2010-Raw'!AS6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AT6" s="9">
+        <f>'2010-Raw'!AT6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AU6" s="9">
+        <f>'2010-Raw'!AU6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AV6" s="9">
+        <f>'2010-Raw'!AV6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AW6" s="9">
+        <f>'2010-Raw'!AW6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AX6" s="9">
+        <f>'2010-Raw'!AX6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AY6" s="9">
+        <f>'2010-Raw'!AY6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="9">
+        <f>'2010-Raw'!AZ6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BA6" s="9">
+        <f>'2010-Raw'!BA6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BB6" s="9">
+        <f>'2010-Raw'!BB6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BC6" s="9">
+        <f>'2010-Raw'!BC6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BD6" s="9">
+        <f>'2010-Raw'!BD6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BE6" s="9">
+        <f>'2010-Raw'!BE6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BF6" s="9">
+        <f>'2010-Raw'!BF6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BG6" s="9">
+        <f>'2010-Raw'!BG6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BH6" s="9">
+        <f>'2010-Raw'!BH6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="BI6" s="9">
+        <f>'2010-Raw'!BI6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BJ6" s="9">
+        <f>'2010-Raw'!BJ6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BK6" s="9">
+        <f>'2010-Raw'!BK6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BL6" s="9">
+        <f>'2010-Raw'!BL6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BM6" s="9">
+        <f>'2010-Raw'!BM6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BN6" s="9">
+        <f>'2010-Raw'!BN6 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BO6" s="9">
+        <f>'2010-Raw'!BO6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BP6" s="9">
+        <f>'2010-Raw'!BP6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BQ6" s="9">
+        <f>'2010-Raw'!BQ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BR6" s="9">
+        <f>'2010-Raw'!BR6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BS6" s="9">
+        <f>'2010-Raw'!BS6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BT6" s="9">
+        <f>'2010-Raw'!BT6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BU6" s="9">
+        <f>'2010-Raw'!BU6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BV6" s="9">
+        <f>'2010-Raw'!BV6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BW6" s="9">
+        <f>'2010-Raw'!BW6 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BX6" s="9">
+        <f>'2010-Raw'!BX6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BY6" s="9">
+        <f>'2010-Raw'!BY6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BZ6" s="9">
+        <f>'2010-Raw'!BZ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CA6" s="9">
+        <f>'2010-Raw'!CA6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CB6" s="9">
+        <f>'2010-Raw'!CB6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CC6" s="9">
+        <f>'2010-Raw'!CC6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CD6" s="9">
+        <f>'2010-Raw'!CD6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CE6" s="9">
+        <f>'2010-Raw'!CE6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CF6" s="9">
+        <f>'2010-Raw'!CF6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CG6" s="9">
+        <f>'2010-Raw'!CG6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CH6" s="9">
+        <f>'2010-Raw'!CH6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CI6" s="9">
+        <f>'2010-Raw'!CI6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CJ6" s="9">
+        <f>'2010-Raw'!CJ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CK6" s="9">
+        <f>'2010-Raw'!CK6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CL6" s="9">
+        <f>'2010-Raw'!CL6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CM6" s="9">
+        <f>'2010-Raw'!CM6 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="CN6" s="9">
+        <f>'2010-Raw'!CN6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CO6" s="9">
+        <f>'2010-Raw'!CO6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CP6" s="9">
+        <f>'2010-Raw'!CP6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CQ6" s="9">
+        <f>'2010-Raw'!CQ6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CR6" s="9">
+        <f>'2010-Raw'!CR6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CS6" s="9">
+        <f>'2010-Raw'!CS6 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CT6" s="9">
+        <f>'2010-Raw'!CT6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CU6" s="9">
+        <f>'2010-Raw'!CU6 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CV6" s="9">
+        <f>'2010-Raw'!CV6 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CW6" s="9">
+        <f>'2010-Raw'!CW6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CX6" s="9">
+        <f>'2010-Raw'!CX6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CY6" s="9">
+        <f>'2010-Raw'!CY6 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CZ6" s="9">
+        <f>'2010-Raw'!CZ6 + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>254</v>
       </c>
@@ -5180,10 +10004,400 @@
       <c r="F7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="9">
+        <f>'2010-Raw'!G7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <f>'2010-Raw'!H7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="9">
+        <f>'2010-Raw'!I7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="9">
+        <f>'2010-Raw'!J7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="9">
+        <f>'2010-Raw'!K7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="9">
+        <f>'2010-Raw'!L7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="9">
+        <f>'2010-Raw'!M7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="N7" s="9">
+        <f>'2010-Raw'!N7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="9">
+        <f>'2010-Raw'!O7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="P7" s="9">
+        <f>'2010-Raw'!P7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>'2010-Raw'!Q7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="R7" s="9">
+        <f>'2010-Raw'!R7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="S7" s="9">
+        <f>'2010-Raw'!S7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="9">
+        <f>'2010-Raw'!T7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="U7" s="9">
+        <f>'2010-Raw'!U7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="V7" s="9">
+        <f>'2010-Raw'!V7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="W7" s="9">
+        <f>'2010-Raw'!W7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="9">
+        <f>'2010-Raw'!X7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="9">
+        <f>'2010-Raw'!Y7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="Z7" s="9">
+        <f>'2010-Raw'!Z7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AA7" s="9">
+        <f>'2010-Raw'!AA7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9">
+        <f>'2010-Raw'!AB7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AC7" s="9">
+        <f>'2010-Raw'!AC7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AD7" s="9">
+        <f>'2010-Raw'!AD7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AE7" s="9">
+        <f>'2010-Raw'!AE7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AF7" s="9">
+        <f>'2010-Raw'!AF7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AG7" s="9">
+        <f>'2010-Raw'!AG7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AH7" s="9">
+        <f>'2010-Raw'!AH7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AI7" s="9">
+        <f>'2010-Raw'!AI7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f>'2010-Raw'!AJ7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AK7" s="9">
+        <f>'2010-Raw'!AK7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="AL7" s="9">
+        <f>'2010-Raw'!AL7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AM7" s="9">
+        <f>'2010-Raw'!AM7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AN7" s="9">
+        <f>'2010-Raw'!AN7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AO7" s="9">
+        <f>'2010-Raw'!AO7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="AP7" s="9">
+        <f>'2010-Raw'!AP7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="9">
+        <f>'2010-Raw'!AQ7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AR7" s="9">
+        <f>'2010-Raw'!AR7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AS7" s="9">
+        <f>'2010-Raw'!AS7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AT7" s="9">
+        <f>'2010-Raw'!AT7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AU7" s="9">
+        <f>'2010-Raw'!AU7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AV7" s="9">
+        <f>'2010-Raw'!AV7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AW7" s="9">
+        <f>'2010-Raw'!AW7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AX7" s="9">
+        <f>'2010-Raw'!AX7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="AY7" s="9">
+        <f>'2010-Raw'!AY7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="AZ7" s="9">
+        <f>'2010-Raw'!AZ7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BA7" s="9">
+        <f>'2010-Raw'!BA7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BB7" s="9">
+        <f>'2010-Raw'!BB7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BC7" s="9">
+        <f>'2010-Raw'!BC7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BD7" s="9">
+        <f>'2010-Raw'!BD7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BE7" s="9">
+        <f>'2010-Raw'!BE7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BF7" s="9">
+        <f>'2010-Raw'!BF7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BG7" s="9">
+        <f>'2010-Raw'!BG7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BH7" s="9">
+        <f>'2010-Raw'!BH7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BI7" s="9">
+        <f>'2010-Raw'!BI7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BJ7" s="9">
+        <f>'2010-Raw'!BJ7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="BK7" s="9">
+        <f>'2010-Raw'!BK7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BL7" s="9">
+        <f>'2010-Raw'!BL7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BM7" s="9">
+        <f>'2010-Raw'!BM7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BN7" s="9">
+        <f>'2010-Raw'!BN7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BO7" s="9">
+        <f>'2010-Raw'!BO7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BP7" s="9">
+        <f>'2010-Raw'!BP7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="BQ7" s="9">
+        <f>'2010-Raw'!BQ7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BR7" s="9">
+        <f>'2010-Raw'!BR7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BS7" s="9">
+        <f>'2010-Raw'!BS7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BT7" s="9">
+        <f>'2010-Raw'!BT7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BU7" s="9">
+        <f>'2010-Raw'!BU7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BV7" s="9">
+        <f>'2010-Raw'!BV7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BW7" s="9">
+        <f>'2010-Raw'!BW7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="BX7" s="9">
+        <f>'2010-Raw'!BX7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="BY7" s="9">
+        <f>'2010-Raw'!BY7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="BZ7" s="9">
+        <f>'2010-Raw'!BZ7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CA7" s="9">
+        <f>'2010-Raw'!CA7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CB7" s="9">
+        <f>'2010-Raw'!CB7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CC7" s="9">
+        <f>'2010-Raw'!CC7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CD7" s="9">
+        <f>'2010-Raw'!CD7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CE7" s="9">
+        <f>'2010-Raw'!CE7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CF7" s="9">
+        <f>'2010-Raw'!CF7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CG7" s="9">
+        <f>'2010-Raw'!CG7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CH7" s="9">
+        <f>'2010-Raw'!CH7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CI7" s="9">
+        <f>'2010-Raw'!CI7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CJ7" s="9">
+        <f>'2010-Raw'!CJ7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CK7" s="9">
+        <f>'2010-Raw'!CK7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CL7" s="9">
+        <f>'2010-Raw'!CL7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CM7" s="9">
+        <f>'2010-Raw'!CM7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CN7" s="9">
+        <f>'2010-Raw'!CN7 + 1</f>
+        <v>8</v>
+      </c>
+      <c r="CO7" s="9">
+        <f>'2010-Raw'!CO7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CP7" s="9">
+        <f>'2010-Raw'!CP7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="CQ7" s="9">
+        <f>'2010-Raw'!CQ7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CR7" s="9">
+        <f>'2010-Raw'!CR7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CS7" s="9">
+        <f>'2010-Raw'!CS7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CT7" s="9">
+        <f>'2010-Raw'!CT7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CU7" s="9">
+        <f>'2010-Raw'!CU7 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="CV7" s="9">
+        <f>'2010-Raw'!CV7 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="CW7" s="9">
+        <f>'2010-Raw'!CW7 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="CX7" s="9">
+        <f>'2010-Raw'!CX7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CY7" s="9">
+        <f>'2010-Raw'!CY7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="CZ7" s="9">
+        <f>'2010-Raw'!CZ7 + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
@@ -5199,10 +10413,400 @@
       <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="9">
+        <f>G7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" ref="H8:BS9" si="0">H7 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AD8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AF8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AG8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AH8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AK8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AL8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AM8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AN8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AO8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AP8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AR8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AS8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AT8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AU8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AV8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AW8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AX8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AY8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AZ8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BA8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BB8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BC8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BD8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BE8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BF8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BG8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BH8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BI8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BJ8" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BK8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BL8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BM8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BN8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BO8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BP8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BQ8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BR8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BS8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BT8" s="9">
+        <f t="shared" ref="BT8:CZ9" si="1">BT7 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="BU8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BV8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BW8" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BX8" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BY8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="BZ8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CA8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CB8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CC8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CD8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CE8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CF8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CG8" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CH8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CI8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CJ8" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="CK8" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CL8" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="CM8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CN8" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CO8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CP8" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="CQ8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CR8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CS8" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CT8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CU8" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CV8" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="CW8" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CX8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CY8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CZ8" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>255</v>
       </c>
@@ -5217,6 +10821,398 @@
       </c>
       <c r="F9" s="9">
         <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <f>G8 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AC9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AD9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AH9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AK9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AL9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AM9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AN9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AO9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AP9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AR9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AS9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AT9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AU9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AV9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AW9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AX9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AY9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AZ9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BA9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BB9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BC9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BD9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BE9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BF9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BG9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BH9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BI9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BJ9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BK9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BL9" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BM9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BN9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BO9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BP9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BQ9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BR9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BS9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BT9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BU9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BV9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BW9" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BX9" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="BY9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BZ9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CA9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CB9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CC9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CD9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CE9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CF9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CG9" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="CH9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CI9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CJ9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="CK9" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="CL9" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CM9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CN9" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="CO9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CP9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="CQ9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CR9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CS9" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="CT9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CU9" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CV9" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CW9" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="CX9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CY9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CZ9" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5224,7 +11220,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:F3 A20:A1048576 A10:A12">
       <formula1>countries</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9 G3:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9">
       <formula1>indicators</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
